--- a/Data/Distribution of fans in Greater-Poland Voivodship/data.xlsx
+++ b/Data/Distribution of fans in Greater-Poland Voivodship/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\kibicowskie-mapy\greater-poland-fans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD564765-3C70-4587-9FBE-3950F9AD9983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9A4071-54F5-4997-83EE-95FA1792DF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lech P." sheetId="24" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="167">
   <si>
     <t>Klub</t>
   </si>
@@ -545,6 +545,9 @@
   <si>
     <t>Puszczykowo (9 000)</t>
   </si>
+  <si>
+    <t>Lisków</t>
+  </si>
 </sst>
 </file>
 
@@ -921,7 +924,7 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -980,17 +983,8 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1343,7 +1337,7 @@
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="3"/>
@@ -2081,7 +2075,7 @@
       <c r="P38" s="3"/>
     </row>
     <row r="39" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="22" t="s">
         <v>100</v>
       </c>
       <c r="B39" s="3"/>
@@ -2901,7 +2895,7 @@
       <c r="P79" s="3"/>
     </row>
     <row r="80" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="22" t="s">
         <v>97</v>
       </c>
       <c r="B80" s="3"/>
@@ -3041,7 +3035,7 @@
       <c r="P86" s="3"/>
     </row>
     <row r="87" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="22" t="s">
         <v>96</v>
       </c>
       <c r="B87" s="3"/>
@@ -5421,8 +5415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AABC4BA-FF7B-4334-BC25-D9FDDC12D341}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5440,7 +5434,7 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -5460,7 +5454,7 @@
       <c r="A2" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="24">
         <f>COUNTA('Lech P.'!A:A) - 1</f>
         <v>100</v>
       </c>
@@ -5479,20 +5473,20 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B3" s="5">
         <f>COUNTA('KKS K.'!A:A) - 1</f>
-        <v>13</v>
-      </c>
-      <c r="C3" s="24">
-        <v>11</v>
-      </c>
-      <c r="D3" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="21">
+        <v>12</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="21" t="s">
         <v>161</v>
       </c>
     </row>
@@ -5504,10 +5498,10 @@
         <f>COUNTA('Górnik K.'!A:A) - 1</f>
         <v>3</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="27">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="21" t="s">
         <v>154</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -5518,7 +5512,7 @@
       <c r="A5" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="25">
         <f>COUNTA('Start G.'!A:A) - 1</f>
         <v>3</v>
       </c>
@@ -5533,10 +5527,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="25">
         <f>COUNTA('Unia L.'!A:A) - 1</f>
         <v>14</v>
       </c>
@@ -5554,14 +5548,14 @@
       <c r="A7" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="25">
         <f>COUNTA('Ostrovia OW.'!A:A) - 1</f>
         <v>5</v>
       </c>
       <c r="C7" s="8">
         <v>0</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="21" t="s">
         <v>153</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -5569,10 +5563,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="25">
         <f>COUNTA('Dyskobolia GW.'!A:A) - 1</f>
         <v>8</v>
       </c>
@@ -5590,7 +5584,7 @@
       <c r="A9" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="25">
         <f>COUNTA('Astra K.'!A:A) - 1</f>
         <v>2</v>
       </c>
@@ -5608,7 +5602,7 @@
       <c r="A10" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="25">
         <f>COUNTA('Jarota J.'!A:A) - 1</f>
         <v>2</v>
       </c>
@@ -5623,10 +5617,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="26">
         <f>COUNTA('Obra K.'!A:A) - 1</f>
         <v>1</v>
       </c>
@@ -5656,8 +5650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761E0B68-A2D2-4D34-908F-2D98D6A6946E}">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A2:A14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5813,7 +5807,7 @@
     </row>
     <row r="9" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5833,7 +5827,7 @@
     </row>
     <row r="10" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5853,7 +5847,7 @@
     </row>
     <row r="11" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5873,7 +5867,7 @@
     </row>
     <row r="12" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5893,7 +5887,7 @@
     </row>
     <row r="13" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5913,7 +5907,7 @@
     </row>
     <row r="14" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5932,6 +5926,9 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -5949,6 +5946,9 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -7581,8 +7581,8 @@
       <c r="P111" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A14">
-    <sortCondition ref="A3:A14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A16">
+    <sortCondition ref="A8:A16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/Data/Distribution of fans in Greater-Poland Voivodship/data.xlsx
+++ b/Data/Distribution of fans in Greater-Poland Voivodship/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\kibicowskie-mapy\greater-poland-fans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9A4071-54F5-4997-83EE-95FA1792DF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005D56B0-6EE6-4D1E-B4C7-A970E45A0411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lech P." sheetId="24" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="166">
   <si>
     <t>Klub</t>
   </si>
@@ -358,9 +358,6 @@
   </si>
   <si>
     <t>Przygodzice</t>
-  </si>
-  <si>
-    <t>Nowe Skamielrzyce</t>
   </si>
   <si>
     <t>Czerwonak</t>
@@ -1320,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8014C681-C0CA-4E13-87EE-5A794AE26B0E}">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T50" sqref="T50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,7 +1454,7 @@
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2296,7 +2293,7 @@
     </row>
     <row r="50" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2636,7 +2633,7 @@
     </row>
     <row r="67" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2776,7 +2773,7 @@
     </row>
     <row r="74" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -3506,7 +3503,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A101">
-    <sortCondition ref="A81:A101"/>
+    <sortCondition ref="A61:A101"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -3528,7 +3525,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -5452,7 +5449,7 @@
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="24">
         <f>COUNTA('Lech P.'!A:A) - 1</f>
@@ -5463,18 +5460,18 @@
         <v>73</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="5">
         <f>COUNTA('KKS K.'!A:A) - 1</f>
@@ -5484,15 +5481,15 @@
         <v>12</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="18">
         <f>COUNTA('Górnik K.'!A:A) - 1</f>
@@ -5502,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>6</v>
@@ -5510,7 +5507,7 @@
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="25">
         <f>COUNTA('Start G.'!A:A) - 1</f>
@@ -5520,15 +5517,15 @@
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" s="25">
         <f>COUNTA('Unia L.'!A:A) - 1</f>
@@ -5538,15 +5535,15 @@
         <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B7" s="25">
         <f>COUNTA('Ostrovia OW.'!A:A) - 1</f>
@@ -5556,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>6</v>
@@ -5564,7 +5561,7 @@
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" s="25">
         <f>COUNTA('Dyskobolia GW.'!A:A) - 1</f>
@@ -5574,15 +5571,15 @@
         <v>3</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B9" s="25">
         <f>COUNTA('Astra K.'!A:A) - 1</f>
@@ -5592,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>6</v>
@@ -5600,7 +5597,7 @@
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10" s="25">
         <f>COUNTA('Jarota J.'!A:A) - 1</f>
@@ -5610,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>6</v>
@@ -5618,7 +5615,7 @@
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" s="26">
         <f>COUNTA('Obra K.'!A:A) - 1</f>
@@ -5628,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>6</v>
@@ -5650,7 +5647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761E0B68-A2D2-4D34-908F-2D98D6A6946E}">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -5661,14 +5658,14 @@
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5688,7 +5685,7 @@
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -5707,7 +5704,7 @@
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5727,7 +5724,7 @@
     </row>
     <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5747,7 +5744,7 @@
     </row>
     <row r="6" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -5787,7 +5784,7 @@
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -5807,7 +5804,7 @@
     </row>
     <row r="9" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5827,7 +5824,7 @@
     </row>
     <row r="10" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5847,7 +5844,7 @@
     </row>
     <row r="11" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5867,7 +5864,7 @@
     </row>
     <row r="12" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5907,7 +5904,7 @@
     </row>
     <row r="14" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5927,7 +5924,7 @@
     </row>
     <row r="15" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5947,7 +5944,7 @@
     </row>
     <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -7604,7 +7601,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -7650,7 +7647,7 @@
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -9511,7 +9508,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -9538,7 +9535,7 @@
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -9557,7 +9554,7 @@
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -11418,7 +11415,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -11445,7 +11442,7 @@
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -11484,7 +11481,7 @@
     </row>
     <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -11524,7 +11521,7 @@
     </row>
     <row r="7" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -11544,7 +11541,7 @@
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -11584,7 +11581,7 @@
     </row>
     <row r="10" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -11604,7 +11601,7 @@
     </row>
     <row r="11" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -11644,7 +11641,7 @@
     </row>
     <row r="13" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -11664,7 +11661,7 @@
     </row>
     <row r="14" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -13358,7 +13355,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -13444,7 +13441,7 @@
     </row>
     <row r="6" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -15271,7 +15268,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -15337,7 +15334,7 @@
     </row>
     <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -15357,7 +15354,7 @@
     </row>
     <row r="6" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -15417,7 +15414,7 @@
     </row>
     <row r="9" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -17193,7 +17190,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -19094,7 +19091,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
